--- a/data/trans_orig/P36BPD12_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD12_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A856F729-77DC-4755-B302-40A9E0C23EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0ABE0EB4-A6D8-4869-B22F-79FCC4C2AF4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7C5F37C5-620A-4D91-A6D0-F732277ED718}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{89E8D53E-8437-4996-8244-3A13462C4786}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="205">
   <si>
     <t>Población según el número de veces que consumen frutos secos a la semana en 2023 (Tasa respuesta: 99,78%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>25,24%</t>
   </si>
   <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
   </si>
   <si>
     <t>43,24%</t>
   </si>
   <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
   </si>
   <si>
     <t>33,94%</t>
   </si>
   <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
   </si>
   <si>
     <t>Una o dos por semana</t>
@@ -104,25 +104,28 @@
     <t>49,07%</t>
   </si>
   <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
   </si>
   <si>
     <t>41,26%</t>
   </si>
   <si>
-    <t>34,39%</t>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
   </si>
   <si>
     <t>45,29%</t>
   </si>
   <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
   </si>
   <si>
     <t>Tres o más a la semana</t>
@@ -131,352 +134,367 @@
     <t>25,69%</t>
   </si>
   <si>
-    <t>18,96%</t>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>56,17%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>61,55%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
   </si>
   <si>
     <t>33,88%</t>
   </si>
   <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
   </si>
   <si>
     <t>37,51%</t>
   </si>
   <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>55,68%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>61,18%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
     <t>44,83%</t>
   </si>
   <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
   </si>
   <si>
     <t>43,53%</t>
   </si>
   <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
   </si>
   <si>
     <t>44,18%</t>
   </si>
   <si>
-    <t>46,46%</t>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
   </si>
   <si>
     <t>21,88%</t>
   </si>
   <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
   </si>
   <si>
     <t>19,46%</t>
   </si>
   <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
   </si>
   <si>
     <t>20,67%</t>
   </si>
   <si>
-    <t>22,87%</t>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -485,127 +503,130 @@
     <t>39,12%</t>
   </si>
   <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
   </si>
   <si>
     <t>40,25%</t>
   </si>
   <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
   </si>
   <si>
     <t>39,79%</t>
   </si>
   <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
   </si>
   <si>
     <t>43,68%</t>
   </si>
   <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
   </si>
   <si>
     <t>45,42%</t>
   </si>
   <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>55,97%</t>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>56,76%</t>
   </si>
   <si>
     <t>17,2%</t>
   </si>
   <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
   </si>
   <si>
     <t>13,16%</t>
   </si>
   <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
   </si>
   <si>
     <t>14,79%</t>
   </si>
   <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
   </si>
   <si>
     <t>31,99%</t>
   </si>
   <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
+    <t>33,82%</t>
   </si>
   <si>
     <t>36,63%</t>
   </si>
   <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
   </si>
   <si>
     <t>34,45%</t>
   </si>
   <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
   </si>
   <si>
     <t>46,95%</t>
   </si>
   <si>
-    <t>49,95%</t>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
   </si>
   <si>
     <t>44,58%</t>
   </si>
   <si>
-    <t>50,09%</t>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>50,91%</t>
   </si>
   <si>
     <t>45,7%</t>
   </si>
   <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
   </si>
   <si>
     <t>21,05%</t>
@@ -614,22 +635,19 @@
     <t>19,2%</t>
   </si>
   <si>
-    <t>22,66%</t>
-  </si>
-  <si>
     <t>18,78%</t>
   </si>
   <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1044,7 +1062,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9AFDB76-92F5-41F3-8379-4B8CC8DF1258}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D7AAEF0-7822-4BBD-BDF7-86398A1DE961}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1240,7 +1258,7 @@
         <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>176</v>
@@ -1249,19 +1267,19 @@
         <v>331177</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>37</v>
@@ -1270,13 +1288,13 @@
         <v>97038</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>30</v>
@@ -1285,13 +1303,13 @@
         <v>54823</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>67</v>
@@ -1300,13 +1318,13 @@
         <v>151861</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1321,13 +1339,13 @@
         <v>377679</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
         <v>206</v>
@@ -1336,13 +1354,13 @@
         <v>353540</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
         <v>378</v>
@@ -1351,18 +1369,18 @@
         <v>731219</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -1374,13 +1392,13 @@
         <v>118210</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H8" s="7">
         <v>152</v>
@@ -1389,13 +1407,13 @@
         <v>163991</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M8" s="7">
         <v>234</v>
@@ -1404,13 +1422,13 @@
         <v>282202</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1425,13 +1443,13 @@
         <v>211444</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>221</v>
@@ -1440,13 +1458,13 @@
         <v>219791</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>372</v>
@@ -1455,19 +1473,19 @@
         <v>431236</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
         <v>68</v>
@@ -1476,13 +1494,13 @@
         <v>97372</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>87</v>
@@ -1491,13 +1509,13 @@
         <v>114795</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>155</v>
@@ -1506,13 +1524,13 @@
         <v>212168</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1527,13 +1545,13 @@
         <v>427027</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H11" s="7">
         <v>460</v>
@@ -1542,13 +1560,13 @@
         <v>498577</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M11" s="7">
         <v>761</v>
@@ -1557,18 +1575,18 @@
         <v>925605</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1580,13 +1598,13 @@
         <v>178272</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>293</v>
@@ -1595,13 +1613,13 @@
         <v>204996</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>463</v>
@@ -1610,13 +1628,13 @@
         <v>383268</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1631,13 +1649,13 @@
         <v>253259</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>386</v>
@@ -1646,13 +1664,13 @@
         <v>261360</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>643</v>
@@ -1661,34 +1679,34 @@
         <v>514619</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
         <v>117</v>
       </c>
       <c r="D14" s="7">
-        <v>124075</v>
+        <v>124074</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>165</v>
@@ -1697,13 +1715,13 @@
         <v>115505</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>282</v>
@@ -1712,13 +1730,13 @@
         <v>239579</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1730,16 +1748,16 @@
         <v>544</v>
       </c>
       <c r="D15" s="7">
-        <v>555606</v>
+        <v>555605</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H15" s="7">
         <v>844</v>
@@ -1748,13 +1766,13 @@
         <v>581861</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M15" s="7">
         <v>1388</v>
@@ -1763,18 +1781,18 @@
         <v>1137467</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1786,13 +1804,13 @@
         <v>217428</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H16" s="7">
         <v>369</v>
@@ -1801,13 +1819,13 @@
         <v>237531</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>577</v>
@@ -1816,13 +1834,13 @@
         <v>454959</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1837,13 +1855,13 @@
         <v>363729</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>522</v>
@@ -1852,13 +1870,13 @@
         <v>330633</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>839</v>
@@ -1867,19 +1885,19 @@
         <v>694362</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>139</v>
@@ -1888,13 +1906,13 @@
         <v>142084</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>248</v>
@@ -1903,13 +1921,13 @@
         <v>178106</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M18" s="7">
         <v>387</v>
@@ -1918,13 +1936,13 @@
         <v>320190</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1939,13 +1957,13 @@
         <v>723241</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H19" s="7">
         <v>1139</v>
@@ -1954,13 +1972,13 @@
         <v>746270</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M19" s="7">
         <v>1803</v>
@@ -1969,18 +1987,18 @@
         <v>1469511</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1992,13 +2010,13 @@
         <v>199450</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H20" s="7">
         <v>373</v>
@@ -2007,13 +2025,13 @@
         <v>220789</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="M20" s="7">
         <v>589</v>
@@ -2022,13 +2040,13 @@
         <v>420239</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2043,13 +2061,13 @@
         <v>268539</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="H21" s="7">
         <v>439</v>
@@ -2058,13 +2076,13 @@
         <v>259664</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="M21" s="7">
         <v>747</v>
@@ -2073,19 +2091,19 @@
         <v>528203</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>82</v>
+        <v>142</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C22" s="7">
         <v>138</v>
@@ -2094,13 +2112,13 @@
         <v>131090</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="H22" s="7">
         <v>189</v>
@@ -2109,13 +2127,13 @@
         <v>116080</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="M22" s="7">
         <v>327</v>
@@ -2124,13 +2142,13 @@
         <v>247170</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2145,13 +2163,13 @@
         <v>599080</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H23" s="7">
         <v>1001</v>
@@ -2160,13 +2178,13 @@
         <v>596533</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M23" s="7">
         <v>1663</v>
@@ -2175,18 +2193,18 @@
         <v>1195612</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2198,13 +2216,13 @@
         <v>272080</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="H24" s="7">
         <v>783</v>
@@ -2213,13 +2231,13 @@
         <v>412849</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="M24" s="7">
         <v>1183</v>
@@ -2228,13 +2246,13 @@
         <v>684929</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2249,13 +2267,13 @@
         <v>303815</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="H25" s="7">
         <v>676</v>
@@ -2264,13 +2282,13 @@
         <v>477966</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="M25" s="7">
         <v>1121</v>
@@ -2279,19 +2297,19 @@
         <v>781782</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C26" s="7">
         <v>180</v>
@@ -2300,13 +2318,13 @@
         <v>119602</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H26" s="7">
         <v>247</v>
@@ -2315,13 +2333,13 @@
         <v>135000</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="M26" s="7">
         <v>427</v>
@@ -2330,13 +2348,13 @@
         <v>254602</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2351,13 +2369,13 @@
         <v>695497</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H27" s="7">
         <v>1706</v>
@@ -2366,13 +2384,13 @@
         <v>1025815</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M27" s="7">
         <v>2731</v>
@@ -2381,13 +2399,13 @@
         <v>1721312</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2404,13 +2422,13 @@
         <v>1080767</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>175</v>
+        <v>98</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="H28" s="7">
         <v>2060</v>
@@ -2419,13 +2437,13 @@
         <v>1393012</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="M28" s="7">
         <v>3181</v>
@@ -2434,13 +2452,13 @@
         <v>2473778</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2455,13 +2473,13 @@
         <v>1586102</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>131</v>
+        <v>189</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="H29" s="7">
         <v>2330</v>
@@ -2470,13 +2488,13 @@
         <v>1695276</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="M29" s="7">
         <v>3898</v>
@@ -2485,19 +2503,19 @@
         <v>3281379</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
         <v>679</v>
@@ -2506,13 +2524,13 @@
         <v>711260</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>192</v>
+        <v>93</v>
       </c>
       <c r="H30" s="7">
         <v>966</v>
@@ -2521,13 +2539,13 @@
         <v>714308</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="M30" s="7">
         <v>1645</v>
@@ -2536,13 +2554,13 @@
         <v>1425568</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2557,13 +2575,13 @@
         <v>3378129</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H31" s="7">
         <v>5356</v>
@@ -2572,13 +2590,13 @@
         <v>3802596</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M31" s="7">
         <v>8724</v>
@@ -2587,18 +2605,18 @@
         <v>7180725</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36BPD12_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD12_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0ABE0EB4-A6D8-4869-B22F-79FCC4C2AF4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A5A943B-F4A2-44F6-A9D2-3B30A0B28B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{89E8D53E-8437-4996-8244-3A13462C4786}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{6E3FDE60-F515-417F-A3B1-5E3F82BBC3F1}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="231">
   <si>
     <t>Población según el número de veces que consumen frutos secos a la semana en 2023 (Tasa respuesta: 99,78%)</t>
   </si>
@@ -65,589 +65,667 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Menos de una a la semana</t>
   </si>
   <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
   </si>
   <si>
     <t>Una o dos por semana</t>
   </si>
   <si>
-    <t>49,07%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>55,76%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
   </si>
   <si>
     <t>Tres o más a la semana</t>
   </si>
   <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
   </si>
   <si>
     <t>21,76%</t>
   </si>
   <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>56,17%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
   </si>
   <si>
     <t>18,13%</t>
   </si>
   <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>45,78%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>60,49%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
   </si>
   <si>
     <t>18,46%</t>
   </si>
   <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>61,55%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>45,05%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>60,62%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1062,8 +1140,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D7AAEF0-7822-4BBD-BDF7-86398A1DE961}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBDA42E9-0BB0-45BE-888F-7A121A2C5AAA}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1183,7 +1261,7 @@
         <v>45</v>
       </c>
       <c r="D4" s="7">
-        <v>95325</v>
+        <v>107539</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1198,7 +1276,7 @@
         <v>90</v>
       </c>
       <c r="I4" s="7">
-        <v>152856</v>
+        <v>140395</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1213,7 +1291,7 @@
         <v>135</v>
       </c>
       <c r="N4" s="7">
-        <v>248181</v>
+        <v>247934</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1234,7 +1312,7 @@
         <v>90</v>
       </c>
       <c r="D5" s="7">
-        <v>185316</v>
+        <v>188399</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1249,7 +1327,7 @@
         <v>86</v>
       </c>
       <c r="I5" s="7">
-        <v>145861</v>
+        <v>123481</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1264,7 +1342,7 @@
         <v>176</v>
       </c>
       <c r="N5" s="7">
-        <v>331177</v>
+        <v>311881</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1285,7 +1363,7 @@
         <v>37</v>
       </c>
       <c r="D6" s="7">
-        <v>97038</v>
+        <v>104049</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1300,7 +1378,7 @@
         <v>30</v>
       </c>
       <c r="I6" s="7">
-        <v>54823</v>
+        <v>48032</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1315,7 +1393,7 @@
         <v>67</v>
       </c>
       <c r="N6" s="7">
-        <v>151861</v>
+        <v>152080</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1336,7 +1414,7 @@
         <v>172</v>
       </c>
       <c r="D7" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -1351,7 +1429,7 @@
         <v>206</v>
       </c>
       <c r="I7" s="7">
-        <v>353540</v>
+        <v>311908</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -1366,7 +1444,7 @@
         <v>378</v>
       </c>
       <c r="N7" s="7">
-        <v>731219</v>
+        <v>711895</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -1389,7 +1467,7 @@
         <v>82</v>
       </c>
       <c r="D8" s="7">
-        <v>118210</v>
+        <v>122125</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>42</v>
@@ -1404,7 +1482,7 @@
         <v>152</v>
       </c>
       <c r="I8" s="7">
-        <v>163991</v>
+        <v>153554</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>45</v>
@@ -1419,7 +1497,7 @@
         <v>234</v>
       </c>
       <c r="N8" s="7">
-        <v>282202</v>
+        <v>275679</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>48</v>
@@ -1440,7 +1518,7 @@
         <v>151</v>
       </c>
       <c r="D9" s="7">
-        <v>211444</v>
+        <v>202849</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>51</v>
@@ -1455,7 +1533,7 @@
         <v>221</v>
       </c>
       <c r="I9" s="7">
-        <v>219791</v>
+        <v>197605</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>54</v>
@@ -1470,7 +1548,7 @@
         <v>372</v>
       </c>
       <c r="N9" s="7">
-        <v>431236</v>
+        <v>400454</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>57</v>
@@ -1491,46 +1569,46 @@
         <v>68</v>
       </c>
       <c r="D10" s="7">
-        <v>97372</v>
+        <v>97230</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>87</v>
       </c>
       <c r="I10" s="7">
-        <v>114795</v>
+        <v>160345</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>155</v>
       </c>
       <c r="N10" s="7">
-        <v>212168</v>
+        <v>257575</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1542,7 +1620,7 @@
         <v>301</v>
       </c>
       <c r="D11" s="7">
-        <v>427027</v>
+        <v>422204</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -1557,7 +1635,7 @@
         <v>460</v>
       </c>
       <c r="I11" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -1572,7 +1650,7 @@
         <v>761</v>
       </c>
       <c r="N11" s="7">
-        <v>925605</v>
+        <v>933708</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -1586,7 +1664,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1595,46 +1673,46 @@
         <v>170</v>
       </c>
       <c r="D12" s="7">
-        <v>178272</v>
+        <v>174918</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>293</v>
       </c>
       <c r="I12" s="7">
-        <v>204996</v>
+        <v>192970</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>463</v>
       </c>
       <c r="N12" s="7">
-        <v>383268</v>
+        <v>367889</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1646,46 +1724,46 @@
         <v>257</v>
       </c>
       <c r="D13" s="7">
-        <v>253259</v>
+        <v>240606</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>386</v>
       </c>
       <c r="I13" s="7">
-        <v>261360</v>
+        <v>240075</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>643</v>
       </c>
       <c r="N13" s="7">
-        <v>514619</v>
+        <v>480681</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1697,46 +1775,46 @@
         <v>117</v>
       </c>
       <c r="D14" s="7">
-        <v>124074</v>
+        <v>119203</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>165</v>
       </c>
       <c r="I14" s="7">
-        <v>115505</v>
+        <v>107917</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>282</v>
       </c>
       <c r="N14" s="7">
-        <v>239579</v>
+        <v>227120</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1748,7 +1826,7 @@
         <v>544</v>
       </c>
       <c r="D15" s="7">
-        <v>555605</v>
+        <v>534728</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -1763,7 +1841,7 @@
         <v>844</v>
       </c>
       <c r="I15" s="7">
-        <v>581861</v>
+        <v>540962</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -1778,7 +1856,7 @@
         <v>1388</v>
       </c>
       <c r="N15" s="7">
-        <v>1137467</v>
+        <v>1075690</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -1792,7 +1870,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1801,46 +1879,46 @@
         <v>208</v>
       </c>
       <c r="D16" s="7">
-        <v>217428</v>
+        <v>214553</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H16" s="7">
         <v>369</v>
       </c>
       <c r="I16" s="7">
-        <v>237531</v>
+        <v>221386</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>102</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="M16" s="7">
         <v>577</v>
       </c>
       <c r="N16" s="7">
-        <v>454959</v>
+        <v>435939</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1852,46 +1930,46 @@
         <v>317</v>
       </c>
       <c r="D17" s="7">
-        <v>363729</v>
+        <v>536623</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>522</v>
       </c>
       <c r="I17" s="7">
-        <v>330633</v>
+        <v>302543</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>839</v>
       </c>
       <c r="N17" s="7">
-        <v>694362</v>
+        <v>839166</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1903,46 +1981,46 @@
         <v>139</v>
       </c>
       <c r="D18" s="7">
-        <v>142084</v>
+        <v>135935</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>248</v>
       </c>
       <c r="I18" s="7">
-        <v>178106</v>
+        <v>188024</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M18" s="7">
         <v>387</v>
       </c>
       <c r="N18" s="7">
-        <v>320190</v>
+        <v>323959</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1954,7 +2032,7 @@
         <v>664</v>
       </c>
       <c r="D19" s="7">
-        <v>723241</v>
+        <v>887112</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -1969,7 +2047,7 @@
         <v>1139</v>
       </c>
       <c r="I19" s="7">
-        <v>746270</v>
+        <v>711952</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -1984,7 +2062,7 @@
         <v>1803</v>
       </c>
       <c r="N19" s="7">
-        <v>1469511</v>
+        <v>1599064</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -1998,7 +2076,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2007,46 +2085,46 @@
         <v>216</v>
       </c>
       <c r="D20" s="7">
-        <v>199450</v>
+        <v>189902</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H20" s="7">
         <v>373</v>
       </c>
       <c r="I20" s="7">
-        <v>220789</v>
+        <v>204428</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M20" s="7">
         <v>589</v>
       </c>
       <c r="N20" s="7">
-        <v>420239</v>
+        <v>394329</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2058,46 +2136,46 @@
         <v>308</v>
       </c>
       <c r="D21" s="7">
-        <v>268539</v>
+        <v>247178</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H21" s="7">
         <v>439</v>
       </c>
       <c r="I21" s="7">
-        <v>259664</v>
+        <v>236001</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M21" s="7">
         <v>747</v>
       </c>
       <c r="N21" s="7">
-        <v>528203</v>
+        <v>483179</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2109,46 +2187,46 @@
         <v>138</v>
       </c>
       <c r="D22" s="7">
-        <v>131090</v>
+        <v>123124</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H22" s="7">
         <v>189</v>
       </c>
       <c r="I22" s="7">
-        <v>116080</v>
+        <v>106986</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M22" s="7">
         <v>327</v>
       </c>
       <c r="N22" s="7">
-        <v>247170</v>
+        <v>230111</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>152</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2160,7 +2238,7 @@
         <v>662</v>
       </c>
       <c r="D23" s="7">
-        <v>599080</v>
+        <v>560204</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -2175,7 +2253,7 @@
         <v>1001</v>
       </c>
       <c r="I23" s="7">
-        <v>596533</v>
+        <v>547415</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -2190,7 +2268,7 @@
         <v>1663</v>
       </c>
       <c r="N23" s="7">
-        <v>1195612</v>
+        <v>1107619</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -2204,55 +2282,55 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>400</v>
+        <v>199</v>
       </c>
       <c r="D24" s="7">
-        <v>272080</v>
+        <v>133740</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H24" s="7">
+        <v>304</v>
+      </c>
+      <c r="I24" s="7">
+        <v>149767</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="H24" s="7">
-        <v>783</v>
-      </c>
-      <c r="I24" s="7">
-        <v>412849</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>503</v>
+      </c>
+      <c r="N24" s="7">
+        <v>283506</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="M24" s="7">
-        <v>1183</v>
-      </c>
-      <c r="N24" s="7">
-        <v>684929</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2261,49 +2339,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>445</v>
+        <v>254</v>
       </c>
       <c r="D25" s="7">
-        <v>303815</v>
+        <v>161363</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H25" s="7">
+        <v>365</v>
+      </c>
+      <c r="I25" s="7">
+        <v>382372</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="H25" s="7">
-        <v>676</v>
-      </c>
-      <c r="I25" s="7">
-        <v>477966</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>619</v>
+      </c>
+      <c r="N25" s="7">
+        <v>543736</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="M25" s="7">
-        <v>1121</v>
-      </c>
-      <c r="N25" s="7">
-        <v>781782</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2312,49 +2390,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>180</v>
+        <v>116</v>
       </c>
       <c r="D26" s="7">
-        <v>119602</v>
+        <v>72460</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>158</v>
+      </c>
+      <c r="I26" s="7">
+        <v>76229</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="H26" s="7">
-        <v>247</v>
-      </c>
-      <c r="I26" s="7">
-        <v>135000</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>274</v>
+      </c>
+      <c r="N26" s="7">
+        <v>148689</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="M26" s="7">
-        <v>427</v>
-      </c>
-      <c r="N26" s="7">
-        <v>254602</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2363,10 +2441,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>1025</v>
+        <v>569</v>
       </c>
       <c r="D27" s="7">
-        <v>695497</v>
+        <v>367563</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -2378,10 +2456,10 @@
         <v>40</v>
       </c>
       <c r="H27" s="7">
-        <v>1706</v>
+        <v>827</v>
       </c>
       <c r="I27" s="7">
-        <v>1025815</v>
+        <v>608368</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -2393,10 +2471,10 @@
         <v>40</v>
       </c>
       <c r="M27" s="7">
-        <v>2731</v>
+        <v>1396</v>
       </c>
       <c r="N27" s="7">
-        <v>1721312</v>
+        <v>975931</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -2410,31 +2488,31 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>178</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>1121</v>
+        <v>201</v>
       </c>
       <c r="D28" s="7">
-        <v>1080767</v>
+        <v>123611</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>181</v>
       </c>
       <c r="H28" s="7">
-        <v>2060</v>
+        <v>479</v>
       </c>
       <c r="I28" s="7">
-        <v>1393012</v>
+        <v>226931</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>182</v>
@@ -2446,10 +2524,10 @@
         <v>184</v>
       </c>
       <c r="M28" s="7">
-        <v>3181</v>
+        <v>680</v>
       </c>
       <c r="N28" s="7">
-        <v>2473778</v>
+        <v>350542</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>185</v>
@@ -2467,10 +2545,10 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>1568</v>
+        <v>191</v>
       </c>
       <c r="D29" s="7">
-        <v>1586102</v>
+        <v>117876</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>188</v>
@@ -2482,10 +2560,10 @@
         <v>190</v>
       </c>
       <c r="H29" s="7">
-        <v>2330</v>
+        <v>311</v>
       </c>
       <c r="I29" s="7">
-        <v>1695276</v>
+        <v>152562</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>191</v>
@@ -2497,19 +2575,19 @@
         <v>193</v>
       </c>
       <c r="M29" s="7">
-        <v>3898</v>
+        <v>502</v>
       </c>
       <c r="N29" s="7">
-        <v>3281379</v>
+        <v>270438</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2518,25 +2596,25 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>679</v>
+        <v>64</v>
       </c>
       <c r="D30" s="7">
-        <v>711260</v>
+        <v>39778</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="G30" s="7" t="s">
-        <v>93</v>
-      </c>
       <c r="H30" s="7">
-        <v>966</v>
+        <v>89</v>
       </c>
       <c r="I30" s="7">
-        <v>714308</v>
+        <v>45570</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>199</v>
@@ -2548,19 +2626,19 @@
         <v>201</v>
       </c>
       <c r="M30" s="7">
-        <v>1645</v>
+        <v>153</v>
       </c>
       <c r="N30" s="7">
-        <v>1425568</v>
+        <v>85348</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>91</v>
+        <v>202</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2569,63 +2647,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>456</v>
+      </c>
+      <c r="D31" s="7">
+        <v>281265</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="7">
+        <v>879</v>
+      </c>
+      <c r="I31" s="7">
+        <v>425063</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="7">
+        <v>1335</v>
+      </c>
+      <c r="N31" s="7">
+        <v>706327</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>1121</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1066388</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="H32" s="7">
+        <v>2060</v>
+      </c>
+      <c r="I32" s="7">
+        <v>1289430</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M32" s="7">
+        <v>3181</v>
+      </c>
+      <c r="N32" s="7">
+        <v>2355818</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>1568</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1694895</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H33" s="7">
+        <v>2330</v>
+      </c>
+      <c r="I33" s="7">
+        <v>1634639</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="M33" s="7">
+        <v>3898</v>
+      </c>
+      <c r="N33" s="7">
+        <v>3329534</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>679</v>
+      </c>
+      <c r="D34" s="7">
+        <v>691780</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H34" s="7">
+        <v>966</v>
+      </c>
+      <c r="I34" s="7">
+        <v>733102</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="M34" s="7">
+        <v>1645</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1424881</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3368</v>
       </c>
-      <c r="D31" s="7">
-        <v>3378129</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="D35" s="7">
+        <v>3453062</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="7">
         <v>5356</v>
       </c>
-      <c r="I31" s="7">
-        <v>3802596</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="I35" s="7">
+        <v>3657172</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" s="7">
         <v>8724</v>
       </c>
-      <c r="N31" s="7">
-        <v>7180725</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>204</v>
+      <c r="N35" s="7">
+        <v>7110233</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
